--- a/data/case1/2/P2_3.xlsx
+++ b/data/case1/2/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.39597952459658359</v>
+        <v>0.39879771986096557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992911108393</v>
+        <v>-0.0099999988233463455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999992779592475</v>
+        <v>-0.0089999988024338506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999797899008</v>
+        <v>-0.011999999715694543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992874057995</v>
+        <v>-0.0059999988172023677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999992652706169</v>
+        <v>-0.0169698125238682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999129636237</v>
+        <v>-0.019999998584211198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999912658712</v>
+        <v>-0.01999999857583834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999992593118279</v>
+        <v>-0.0059999987635102059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992590462625</v>
+        <v>-0.0059999987575949376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013920456829591643</v>
+        <v>-0.0044999987783924666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992598132046</v>
+        <v>-0.0059999987567982416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992659536261</v>
+        <v>0.0012252853647751749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.05836778688786648</v>
+        <v>-0.01199999866926138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999992661881052</v>
+        <v>-0.0059999987531362819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999992638450905</v>
+        <v>0.021571763081101203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992608537056</v>
+        <v>-0.0059999987500942709</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999992314231392</v>
+        <v>-0.008999998707504453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.082124439883638267</v>
+        <v>-0.081933824876212924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992922979999</v>
+        <v>-0.0089999988241054041</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999992913165627</v>
+        <v>-0.0089999988227695837</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999992906610871</v>
+        <v>-0.0089999988219533478</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999992713671872</v>
+        <v>-0.0089999987925866165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998944048045</v>
+        <v>-0.041999998315739084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998938224259</v>
+        <v>-0.041999998307309383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992626522669</v>
+        <v>-0.0059999987804246757</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992582762118</v>
+        <v>-0.0059999987774870256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992412453906</v>
+        <v>-0.0059999987631478291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999172862985</v>
+        <v>-0.011999998672251877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999090539955</v>
+        <v>-0.019999998557035603</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999130575148</v>
+        <v>0.015964099629115935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999071734443</v>
+        <v>-0.020999998539487308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992152182102</v>
+        <v>-0.0059999987483791983</v>
       </c>
     </row>
   </sheetData>
